--- a/storage/app/public/products.xlsx
+++ b/storage/app/public/products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Item</t>
   </si>
@@ -44,34 +44,13 @@
     <t>Valor Retoma</t>
   </si>
   <si>
-    <t>Mensajeria</t>
-  </si>
-  <si>
-    <t>Impuestos</t>
-  </si>
-  <si>
-    <t>Papeles</t>
-  </si>
-  <si>
-    <t>Comisión</t>
-  </si>
-  <si>
-    <t>Lavada</t>
-  </si>
-  <si>
-    <t>Repuestos</t>
-  </si>
-  <si>
-    <t>Taller</t>
-  </si>
-  <si>
-    <t>LLantas</t>
-  </si>
-  <si>
-    <t>Pintura</t>
-  </si>
-  <si>
-    <t>Calcomanias</t>
+    <t>LAVADA</t>
+  </si>
+  <si>
+    <t>TALLER</t>
+  </si>
+  <si>
+    <t>ARRIENDO</t>
   </si>
   <si>
     <t>Total</t>
@@ -83,22 +62,19 @@
     <t>moto</t>
   </si>
   <si>
-    <t>Et id odit totam ali</t>
-  </si>
-  <si>
-    <t>Quo saepe sed et per</t>
-  </si>
-  <si>
-    <t>Tempora dolores ad o</t>
-  </si>
-  <si>
-    <t>Sint sequi</t>
-  </si>
-  <si>
-    <t>Qui aliquam adi</t>
-  </si>
-  <si>
-    <t>Quia duis saepe</t>
+    <t>z400</t>
+  </si>
+  <si>
+    <t>kawasaki</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>UFR65D</t>
+  </si>
+  <si>
+    <t>BOGOTA</t>
   </si>
 </sst>
 </file>
@@ -438,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +422,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,66 +460,45 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2">
-        <v>50000</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>1212</v>
+        <v>1000</v>
       </c>
       <c r="K2">
-        <v>2565</v>
+        <v>5222222</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -552,158 +507,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5223222</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>3777</v>
-      </c>
-      <c r="U2">
-        <v>3776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3">
-        <v>50000</v>
-      </c>
-      <c r="J3">
-        <v>10000</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>10000</v>
-      </c>
-      <c r="U3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>50000</v>
-      </c>
-      <c r="J4">
-        <v>10000</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>20000</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>30000</v>
-      </c>
-      <c r="U4">
-        <v>20000</v>
+        <v>-223222</v>
       </c>
     </row>
   </sheetData>
